--- a/biology/Médecine/Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse/Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse/Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_Ibn_El_Jazzar_de_Sousse</t>
+          <t>Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine Ibn El Jazzar de Sousse (arabe : كلية الطب إبن الجزّار بسوسة) ou FMS est un établissement universitaire tunisien rattaché à l'université de Sousse. Il est placé sous la double tutelle du ministère de l'Enseignement supérieur et de la Recherche scientifique et du ministère de la Santé publique.
 Fondée en 1974 par la loi n°74-83 du 11 décembre 1974 ratifiant le décret-loi n°74-7 du 25 août de la même année, elle accueille sa première promotion (117 étudiants) en octobre 1974 avec un corps enseignant fixe limité à trois maîtres de conférences agrégés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_Ibn_El_Jazzar_de_Sousse</t>
+          <t>Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine de Sousse est, avec la faculté de médecine de Sfax, la première faculté implantée en dehors de Tunis. Elle constitue également le premier établissement d'enseignement supérieur implanté à Sousse, dans le Centre tunisien.
 Dotée d'une mission régionale de développement, elle prend dès sa création l'option de s'ouvrir sur son environnement et de préparer ses futurs médecins à un exercice d'une  médecine intégrée selon une approche à la fois curative et préventive. Elle crée ainsi un département de médecine communautaire et instaure cet enseignement dès la première année.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_Ibn_El_Jazzar_de_Sousse</t>
+          <t>Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amphithéâtres ;
 Salle des thèses ;
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_Ibn_El_Jazzar_de_Sousse</t>
+          <t>Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Doyens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Depuis 1974, neuf doyens se sont succédé à la tête de la faculté de médecine de Sousse[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Depuis 1974, neuf doyens se sont succédé à la tête de la faculté de médecine de Sousse :
 1974-1983 : Souad Lyagoubi
 1983-1985 : Chadli Bouzakoura
 1985-1993 : Mohsen Jeddi
@@ -594,7 +612,7 @@
 2005-2008 : Abdelkrim Zbidi
 2008-2011 : Nejib Mrizak
 2011-2017 : Ali Mtiraoui
-depuis 2017 : Hédi Khairi[2]</t>
+depuis 2017 : Hédi Khairi</t>
         </is>
       </c>
     </row>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_Ibn_El_Jazzar_de_Sousse</t>
+          <t>Faculté_de_médecine_Ibn_El_Jazzar_de_Sousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Secrétaires généraux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1974-1996 : Moncef Ghaddab
 1996-1998 : Youssef Marouani
@@ -633,7 +653,7 @@
 2007-2010 : Kamel Belhaj
 2010-2011 : Moufida Chebbi
 2011-2017 : Mounir Ben Fadhl
-depuis 2017 : Jalaâ Souguir[2]</t>
+depuis 2017 : Jalaâ Souguir</t>
         </is>
       </c>
     </row>
